--- a/medicine/Sexualité et sexologie/Rosemarie_Nitribitt/Rosemarie_Nitribitt.xlsx
+++ b/medicine/Sexualité et sexologie/Rosemarie_Nitribitt/Rosemarie_Nitribitt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosemarie Nitribitt (Düsseldorf, 1er février 1933 - Francfort-sur-le-Main, 29 octobre 1957) est une prostituée allemande. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son assassinat en octobre 1957 n'a, à ce jour, pas été élucidé. L'enquête n'a trouvé qu'un suspect, plus tard acquitté au bénéfice du doute. 
 Le carnet d'adresses de la jeune femme était rempli de noms d'hommes politiques et d'industriels du pays. Plusieurs notables faisaient partie de ses clients, ce que les médias ont exploités pour insinuer qu'on avait cherché à étouffer l'enquête.
@@ -543,7 +557,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce meurtre a inspiré, entre autres, un roman d'Erich Kuby, Rosemarie, ainsi que trois films. 
 1958 : La Fille Rosemarie, inspiré du roman.
